--- a/documento prueba.xlsx
+++ b/documento prueba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22920" windowHeight="7740"/>
+    <workbookView windowWidth="22920" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Bienvenido</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>casa</t>
   </si>
   <si>
     <t>Pruebas XlSX</t>
@@ -47,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -61,6 +70,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -69,6 +94,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -76,6 +161,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,7 +170,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,29 +185,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,14 +200,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,68 +213,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -214,37 +223,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,145 +397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,6 +414,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,17 +465,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -467,17 +480,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,148 +519,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,22 +1019,33 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>12825</v>
@@ -1033,15 +1053,15 @@
     </row>
     <row r="4" spans="4:5">
       <c r="D4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="4:5">
       <c r="D5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>825.25</v>
@@ -1049,13 +1069,13 @@
     </row>
     <row r="6" spans="4:6">
       <c r="D6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/documento prueba.xlsx
+++ b/documento prueba.xlsx
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
